--- a/test-data/tdata.xlsx
+++ b/test-data/tdata.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15165" windowHeight="2805"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -24,20 +25,28 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://localhost</t>
+    <t>http://demo.actitime.com</t>
   </si>
   <si>
-    <t>FF</t>
+    <t>gc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,14 +84,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,16 +397,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,17 +414,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -422,7 +437,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -434,7 +449,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
